--- a/cc.xlsx
+++ b/cc.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="并发控制方法" sheetId="1" r:id="rId1"/>
     <sheet name="隔离级别实现" sheetId="2" r:id="rId2"/>
-    <sheet name="可串行性各种现象" sheetId="3" r:id="rId3"/>
-    <sheet name="并发编排" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="隔离级别事务读取" sheetId="6" r:id="rId3"/>
+    <sheet name="可串行性各种现象" sheetId="3" r:id="rId4"/>
+    <sheet name="并发编排" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -103,42 +104,13 @@
   <etc:cellImage>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="ID_6BABF0474A56414CB7925176C0A98DAE"/>
+        <xdr:cNvPr id="9" name="ID_24BC66371B1C42C38BCB568E1A30E24B"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10372725" y="7277100"/>
-          <a:ext cx="4724400" cy="1771650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-  </etc:cellImage>
-  <etc:cellImage>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="ID_24BC66371B1C42C38BCB568E1A30E24B"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -158,11 +130,40 @@
       </xdr:spPr>
     </xdr:pic>
   </etc:cellImage>
+  <etc:cellImage>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="ID_1E3EFF8E5BF149A28B0FF5470988FCA7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13192125" y="3295650"/>
+          <a:ext cx="4724400" cy="2924175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+  </etc:cellImage>
 </etc:cellImages>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
   <si>
     <t>类目</t>
   </si>
@@ -224,7 +225,7 @@
     <t>以锁点分界，之前膨胀阶段获取所有锁，之后收缩阶段释放锁</t>
   </si>
   <si>
-    <t>短小的写操作，会被长读操作阻塞</t>
+    <t>读写会被阻塞</t>
   </si>
   <si>
     <t>2PL+Multi-Granularity</t>
@@ -257,43 +258,105 @@
     <t>幻象</t>
   </si>
   <si>
+    <t>读写操作会回滚</t>
+  </si>
+  <si>
     <t>OCC</t>
   </si>
   <si>
-    <t>读写在本地副本，serializable验证</t>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读写在本地副本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，serializable验证</t>
+    </r>
   </si>
   <si>
     <t>MVCC</t>
   </si>
   <si>
+    <t>MVTO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFC00000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读快照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，读和写操作标记时间，写操作落后回滚</t>
+    </r>
+  </si>
+  <si>
+    <t>读操作永不失败、不等待，但有读标记开销</t>
+  </si>
+  <si>
+    <t>MV2PL</t>
+  </si>
+  <si>
+    <t>区别只读事务(读快照)和写事务，写操作标记版本，2PL锁操作</t>
+  </si>
+  <si>
+    <t>读操作永不失败、不等待</t>
+  </si>
+  <si>
+    <t>隔离级别</t>
+  </si>
+  <si>
+    <t>实现</t>
+  </si>
+  <si>
+    <t>MySQL InnoDB</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>实现要点</t>
+  </si>
+  <si>
+    <t>读</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
     <t>MVCC+T/O</t>
   </si>
   <si>
-    <t>读和写操作标记时间，TO序列化验证</t>
-  </si>
-  <si>
-    <t>MVCC+2PL</t>
-  </si>
-  <si>
-    <t>写操作标记版本，2PL锁操作</t>
-  </si>
-  <si>
-    <t>隔离级别</t>
-  </si>
-  <si>
-    <t>实现</t>
-  </si>
-  <si>
-    <t>读</t>
-  </si>
-  <si>
-    <t>更新</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>SI</t>
+    <t>类似RR</t>
+  </si>
+  <si>
+    <t>不保证可串行性，有write skew问题</t>
   </si>
   <si>
     <t>读本地副本，写时间，startTS,commitTS</t>
@@ -305,58 +368,95 @@
     <t>本地副本，first-committer或者first-updater验证</t>
   </si>
   <si>
-    <t>不保证可串行性，有write skew问题</t>
-  </si>
-  <si>
     <t>SSI</t>
   </si>
   <si>
-    <t>异常</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>举例</t>
-  </si>
-  <si>
-    <t>write skew</t>
-  </si>
-  <si>
-    <t>更新数据记录不同，但是数据相互依赖</t>
-  </si>
-  <si>
-    <t>phantom</t>
-  </si>
-  <si>
-    <t>谓词查询和聚合，受插入和更新影响</t>
-  </si>
-  <si>
-    <t>lost update</t>
-  </si>
-  <si>
-    <t>一个事务读写数据，另一个事务覆盖数据</t>
+    <t>MVCC+T/O+RW Tracking</t>
+  </si>
+  <si>
+    <r>
+      <t>S2PL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自动把简单的Select加锁</t>
+    </r>
+  </si>
+  <si>
+    <t>跟踪读写冲突</t>
+  </si>
+  <si>
+    <t>Indexing Locking+</t>
+  </si>
+  <si>
+    <t>SI+Serializable Isolation</t>
+  </si>
+  <si>
+    <t>只读事务用SI，写事务用其他隔离级别</t>
+  </si>
+  <si>
+    <t>RR(SI)</t>
+  </si>
+  <si>
+    <t>事务可见级别一致性读+锁读，间隙锁（类似谓词锁）</t>
+  </si>
+  <si>
+    <t>如果用了Locking Read，则可能产生phantom</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>语句级别一致性读+锁读</t>
+  </si>
+  <si>
+    <t>可能产生phantom</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>读最新数据</t>
   </si>
   <si>
     <t>dirty read</t>
   </si>
   <si>
-    <t>未提交的/取消的数据</t>
-  </si>
-  <si>
-    <t>Non-repeatable reads</t>
-  </si>
-  <si>
-    <t>读已经提交数据</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
     <t>T2</t>
   </si>
   <si>
-    <r>
+    <t>①</t>
+  </si>
+  <si>
+    <t>②</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">R(A1)
 </t>
     </r>
@@ -368,24 +468,117 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">// 20 </t>
-    </r>
-  </si>
-  <si>
-    <t>W(A1=21)</t>
-  </si>
-  <si>
-    <r>
+      <t>//10</t>
+    </r>
+  </si>
+  <si>
+    <t>Read uncommited</t>
+  </si>
+  <si>
+    <t>W(A1=20)</t>
+  </si>
+  <si>
+    <t>Read commited</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>R(A1)</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="16"/>
-        <color rgb="FF000000"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>①</t>
+    </r>
+  </si>
+  <si>
+    <t>Repeatable Read</t>
+  </si>
+  <si>
+    <t>commit;</t>
+  </si>
+  <si>
+    <t>Serializable Snapshot</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
+      <t>R(A1)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>②</t>
+    </r>
+  </si>
+  <si>
+    <t>异常</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>举例</t>
+  </si>
+  <si>
+    <t>write skew</t>
+  </si>
+  <si>
+    <t>更新数据记录不同，但是数据相互依赖</t>
+  </si>
+  <si>
+    <t>phantom</t>
+  </si>
+  <si>
+    <t>谓词查询和聚合，受插入和更新影响</t>
+  </si>
+  <si>
+    <t>lost update</t>
+  </si>
+  <si>
+    <t>一个事务读写数据，另一个事务覆盖数据</t>
+  </si>
+  <si>
+    <t>未提交的/取消的数据</t>
+  </si>
+  <si>
+    <t>Non-repeatable reads</t>
+  </si>
+  <si>
+    <t>读已经提交数据</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">R(A1)
 </t>
     </r>
     <r>
@@ -396,6 +589,41 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">// 20 </t>
+    </r>
+  </si>
+  <si>
+    <t>W(A1=21)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R(A1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>// 21, dirty read</t>
     </r>
   </si>
@@ -404,6 +632,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">W(A1=21)
 </t>
     </r>
@@ -420,6 +655,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>R(A1)</t>
     </r>
     <r>
@@ -461,6 +703,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">INSERT(A1=21)
 </t>
     </r>
@@ -477,16 +726,7 @@
   </si>
   <si>
     <r>
-      <t>RALL(A1&gt;10)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">RALL(A1&gt;10)
 </t>
     </r>
     <r>
@@ -497,12 +737,22 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>// 21, Non-repeatable read</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">R(A)
+      <t>// 20</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，没变化</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">W(A1=22)
 </t>
     </r>
     <r>
@@ -513,22 +763,17 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">// 20 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>W(A=A-10)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-commit; </t>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>居然可以直接更新，</t>
     </r>
     <r>
       <rPr>
@@ -538,19 +783,35 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
-      <t>// 10</t>
-    </r>
-  </si>
-  <si>
-    <t>R(A)</t>
-  </si>
-  <si>
-    <t>R(B)</t>
-  </si>
-  <si>
-    <r>
-      <t>W(A=B)</t>
-    </r>
+      <t>phantom</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RALL(A1&gt;10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 22</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -559,12 +820,90 @@
         <rFont val="Courier New"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">R(A)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">// 20 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>W(A=A-10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+commit; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>// 10</t>
+    </r>
+  </si>
+  <si>
+    <t>R(A)</t>
+  </si>
+  <si>
+    <t>R(B)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>W(A=B)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">
 commit;</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>W(B=A)</t>
     </r>
     <r>
@@ -587,10 +926,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,6 +995,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -664,7 +1017,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,8 +1054,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,15 +1108,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,75 +1140,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -812,6 +1158,20 @@
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -834,31 +1194,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,25 +1338,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,114 +1369,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,6 +1427,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1086,7 +1490,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,65 +1524,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1172,10 +1532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1184,137 +1544,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1339,25 +1699,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1408,11 +1768,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1476,53 +1833,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>97155</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18087975" y="8315325"/>
-          <a:ext cx="4124325" cy="1847850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1721,25 +2031,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="3" width="74.25" customWidth="1"/>
+    <col min="3" max="3" width="81.125" customWidth="1"/>
     <col min="4" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="44.5" customWidth="1"/>
+    <col min="9" max="9" width="56.125" customWidth="1"/>
     <col min="10" max="10" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="20.25" spans="1:10">
+    <row r="1" s="13" customFormat="1" ht="20.25" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1767,11 +2077,11 @@
       <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" ht="20.25" spans="1:10">
+    <row r="2" s="14" customFormat="1" ht="20.25" spans="1:10">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -1794,10 +2104,10 @@
       <c r="H2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-    </row>
-    <row r="3" s="12" customFormat="1" ht="20.25" spans="1:10">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" s="13" customFormat="1" ht="20.25" spans="1:10">
       <c r="A3" s="24"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1813,10 +2123,10 @@
       <c r="A4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="27"/>
@@ -1825,16 +2135,16 @@
       <c r="G4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" ht="20.25" spans="1:10">
       <c r="A5" s="26"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="27"/>
@@ -1843,18 +2153,18 @@
       <c r="G5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="8"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" ht="20.25" spans="1:10">
       <c r="A6" s="26"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="27"/>
@@ -1863,16 +2173,16 @@
       <c r="G6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" ht="20.25" spans="1:10">
       <c r="A7" s="26"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="27"/>
@@ -1881,16 +2191,16 @@
       <c r="G7" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" ht="20.25" spans="1:10">
       <c r="A8" s="26"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="21" t="s">
@@ -1906,133 +2216,171 @@
       <c r="H8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-    </row>
-    <row r="9" s="14" customFormat="1" ht="20.25" spans="1:10">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="20.25" spans="1:6">
+      <c r="A9" s="26"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" ht="20.25" spans="1:10">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" ht="20.25" spans="1:10">
+      <c r="A11" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D11" s="30" t="s">
         <v>13</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" ht="20.25" spans="1:10">
-      <c r="A11" s="26"/>
-      <c r="B11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>14</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="30" t="s">
+        <v>30</v>
+      </c>
       <c r="G11" s="23" t="s">
         <v>14</v>
       </c>
       <c r="H11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="J11" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" s="15" customFormat="1" ht="20.25" spans="4:6">
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-    </row>
-    <row r="13" s="8" customFormat="1" ht="20.25" spans="1:6">
-      <c r="A13" s="26" t="s">
+    <row r="12" ht="20.25" spans="1:10">
+      <c r="A12" s="26"/>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="D12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" s="15" customFormat="1" ht="20.25" spans="1:10">
+      <c r="A13" s="26"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="23"/>
+      <c r="H13"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="20.25" spans="1:10">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="B15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="C15" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-    </row>
-    <row r="14" s="8" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A14" s="26"/>
-      <c r="B14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="E15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="29" t="s">
+    </row>
+    <row r="16" s="1" customFormat="1" ht="20.25" spans="1:9">
+      <c r="A16" s="26"/>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="26" t="s">
+      <c r="E16" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" s="15" customFormat="1" ht="20.25" spans="4:6">
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-    </row>
-    <row r="16" s="8" customFormat="1" ht="20.25"/>
-    <row r="17" s="8" customFormat="1" ht="20.25"/>
-    <row r="18" s="8" customFormat="1" ht="20.25"/>
-    <row r="19" s="8" customFormat="1" ht="20.25"/>
-    <row r="20" s="8" customFormat="1" ht="20.25"/>
-    <row r="21" s="8" customFormat="1" ht="20.25"/>
-    <row r="22" s="8" customFormat="1" ht="20.25"/>
-    <row r="23" s="8" customFormat="1" ht="20.25"/>
-    <row r="24" s="8" customFormat="1" ht="20.25"/>
-    <row r="25" s="8" customFormat="1" ht="20.25"/>
+      <c r="I16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="20.25"/>
+    <row r="18" s="1" customFormat="1" ht="20.25"/>
+    <row r="19" s="1" customFormat="1" ht="20.25"/>
+    <row r="20" s="1" customFormat="1" ht="20.25"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2042,76 +2390,193 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="54.375" customWidth="1"/>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="5" max="5" width="69.75" customWidth="1"/>
-    <col min="6" max="6" width="62" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
+    <col min="3" max="3" width="69.375" customWidth="1"/>
+    <col min="4" max="5" width="54.375" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+    <col min="7" max="7" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="20.25" spans="1:6">
+    <row r="1" s="7" customFormat="1" ht="20.25" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" ht="20.25" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" ht="20.25" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" ht="20.25" spans="1:6">
-      <c r="A4" s="8" t="s">
+    <row r="2" ht="20.25" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" ht="20.25" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" ht="20.25" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" ht="20.25" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" ht="20.25" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" ht="20.25" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="20.25" spans="1:6">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" ht="20.25" spans="1:6">
+      <c r="A10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" ht="20.25" spans="1:6">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" ht="20.25" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" ht="20.25" spans="1:6">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2122,135 +2587,101 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="31.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="50.25" style="8" customWidth="1"/>
-    <col min="3" max="3" width="41.375" customWidth="1"/>
-    <col min="10" max="10" width="63.625" customWidth="1"/>
-    <col min="11" max="11" width="43.5" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:3">
-      <c r="A1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" ht="174" customHeight="1" spans="1:3">
-      <c r="A2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" t="str">
-        <f>_xlfn.DISPIMG("ID_A0FF7D28D25542A598D0297AF867B89D",1)</f>
-        <v>=DISPIMG("ID_A0FF7D28D25542A598D0297AF867B89D",1)</v>
-      </c>
-    </row>
-    <row r="3" ht="141" customHeight="1" spans="1:3">
-      <c r="A3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="str">
-        <f>_xlfn.DISPIMG("ID_6BABF0474A56414CB7925176C0A98DAE",1)</f>
-        <v>=DISPIMG("ID_6BABF0474A56414CB7925176C0A98DAE",1)</v>
-      </c>
-    </row>
-    <row r="4" ht="112.45" spans="1:3">
-      <c r="A4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="str">
-        <f>_xlfn.DISPIMG("ID_24BC66371B1C42C38BCB568E1A30E24B",1)</f>
-        <v>=DISPIMG("ID_24BC66371B1C42C38BCB568E1A30E24B",1)</v>
-      </c>
-    </row>
-    <row r="5" ht="102" customHeight="1" spans="1:3">
-      <c r="A5" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="10" t="str">
-        <f>_xlfn.DISPIMG("ID_5A4C0E01B4E9449ABE7917BDDCDE5A51",1)</f>
-        <v>=DISPIMG("ID_5A4C0E01B4E9449ABE7917BDDCDE5A51",1)</v>
-      </c>
-    </row>
-    <row r="6" ht="125" customHeight="1" spans="1:3">
-      <c r="A6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="8" t="str">
-        <f>_xlfn.DISPIMG("ID_304E6FCC18394D45B198344964BBC563",1)</f>
-        <v>=DISPIMG("ID_304E6FCC18394D45B198344964BBC563",1)</v>
-      </c>
-    </row>
-    <row r="15" spans="10:11">
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="10:11">
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="10:11">
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="10:11">
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="10:11">
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="10:11">
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="10:11">
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="10:11">
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="10:11">
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="10:11">
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="10:11">
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+    <row r="1" ht="21" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" ht="37.5" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="21.75" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="E3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="21.75" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="21.75" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="E5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="21.75" spans="2:2">
+      <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" ht="21.75" spans="2:2">
+      <c r="B7" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2261,10 +2692,149 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <cols>
+    <col min="1" max="1" width="31.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="10" max="10" width="63.625" customWidth="1"/>
+    <col min="11" max="11" width="43.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="7" customFormat="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" ht="174" customHeight="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="str">
+        <f>_xlfn.DISPIMG("ID_A0FF7D28D25542A598D0297AF867B89D",1)</f>
+        <v>=DISPIMG("ID_A0FF7D28D25542A598D0297AF867B89D",1)</v>
+      </c>
+    </row>
+    <row r="3" ht="141" customHeight="1" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="str">
+        <f>_xlfn.DISPIMG("ID_1E3EFF8E5BF149A28B0FF5470988FCA7",1)</f>
+        <v>=DISPIMG("ID_1E3EFF8E5BF149A28B0FF5470988FCA7",1)</v>
+      </c>
+    </row>
+    <row r="4" ht="112.45" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="str">
+        <f>_xlfn.DISPIMG("ID_24BC66371B1C42C38BCB568E1A30E24B",1)</f>
+        <v>=DISPIMG("ID_24BC66371B1C42C38BCB568E1A30E24B",1)</v>
+      </c>
+    </row>
+    <row r="5" ht="102" customHeight="1" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f>_xlfn.DISPIMG("ID_5A4C0E01B4E9449ABE7917BDDCDE5A51",1)</f>
+        <v>=DISPIMG("ID_5A4C0E01B4E9449ABE7917BDDCDE5A51",1)</v>
+      </c>
+    </row>
+    <row r="6" ht="125" customHeight="1" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>_xlfn.DISPIMG("ID_304E6FCC18394D45B198344964BBC563",1)</f>
+        <v>=DISPIMG("ID_304E6FCC18394D45B198344964BBC563",1)</v>
+      </c>
+    </row>
+    <row r="15" spans="10:11">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="10:11">
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="10:11">
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="10:11">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="10:11">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="10:11">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -2275,6 +2845,7 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="7" max="7" width="32.75" customWidth="1"/>
     <col min="8" max="8" width="29.125" customWidth="1"/>
+    <col min="9" max="9" width="12.5"/>
     <col min="10" max="10" width="31.625" customWidth="1"/>
     <col min="11" max="11" width="22.5" customWidth="1"/>
     <col min="13" max="14" width="12.5" customWidth="1"/>
@@ -2283,166 +2854,172 @@
   <sheetData>
     <row r="1" ht="21" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" ht="37.5" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="21.75" spans="2:2">
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" ht="37.5" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" ht="21" spans="4:5">
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" ht="36.75" spans="4:5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" ht="37.5" spans="4:5">
       <c r="D10" s="3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" ht="42.75" spans="4:5">
+    <row r="11" ht="42" spans="4:5">
       <c r="D11" s="1"/>
       <c r="E11" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" ht="53.25" spans="4:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" ht="37.5" spans="4:8">
       <c r="D12" s="3" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="4:5">
+      <c r="G12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" ht="37.5" spans="4:8">
       <c r="D13" s="1"/>
       <c r="E13" s="5"/>
-    </row>
-    <row r="15" ht="21" spans="7:8">
-      <c r="G15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="G13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" ht="42.75" spans="7:8">
+      <c r="G14" s="1"/>
+      <c r="H14" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" ht="37.5" spans="7:8">
+      <c r="G15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" ht="37.5" spans="7:8">
       <c r="G16" s="3" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" ht="42.75" spans="7:8">
-      <c r="G17" s="1"/>
-      <c r="H17" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" ht="37.5" spans="7:8">
-      <c r="G18" s="3" t="s">
-        <v>72</v>
-      </c>
+    <row r="17" ht="37.5" spans="7:8">
+      <c r="G17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" ht="21.75" spans="7:8">
+      <c r="G18" s="3"/>
       <c r="H18" s="1"/>
     </row>
     <row r="20" ht="21" spans="10:11">
       <c r="J20" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" ht="39" customHeight="1" spans="8:11">
-      <c r="H21" t="str">
-        <f>_xlfn.DISPIMG("ID_6BABF0474A56414CB7925176C0A98DAE",1)</f>
-        <v>=DISPIMG("ID_6BABF0474A56414CB7925176C0A98DAE",1)</v>
-      </c>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" ht="39" customHeight="1" spans="10:11">
       <c r="J21" s="3" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" ht="42.75" spans="10:11">
       <c r="J22" s="3" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="K22" s="3"/>
     </row>
     <row r="23" ht="42.75" spans="11:11">
       <c r="K23" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" ht="53.25"/>
+        <v>108</v>
+      </c>
+    </row>
     <row r="26" ht="21" spans="13:14">
       <c r="M26" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" ht="21" spans="13:14">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" ht="21.75" spans="13:14">
       <c r="M27" s="3" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" ht="21" spans="13:13">
+    <row r="28" ht="21.75" spans="13:13">
       <c r="M28" s="3" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" ht="21.75" spans="13:14">
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" ht="21.75" spans="14:14">
       <c r="N30" s="3" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" ht="42.75" spans="13:13">
       <c r="M31" s="6" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" ht="42.75" spans="14:14">
       <c r="N32" s="6" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/cc.xlsx
+++ b/cc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="并发控制方法" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="113">
-  <si>
-    <t>类目</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
+  <si>
+    <t>并发分类</t>
   </si>
   <si>
     <t>协议名称</t>
@@ -375,6 +375,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>S2PL</t>
     </r>
     <r>
@@ -543,31 +550,49 @@
     <t>举例</t>
   </si>
   <si>
+    <t>现有解决方案</t>
+  </si>
+  <si>
     <t>write skew</t>
   </si>
   <si>
     <t>更新数据记录不同，但是数据相互依赖</t>
   </si>
   <si>
+    <t>循环依赖检测</t>
+  </si>
+  <si>
     <t>phantom</t>
   </si>
   <si>
     <t>谓词查询和聚合，受插入和更新影响</t>
   </si>
   <si>
+    <t>串行化</t>
+  </si>
+  <si>
     <t>lost update</t>
   </si>
   <si>
     <t>一个事务读写数据，另一个事务覆盖数据</t>
   </si>
   <si>
+    <t>写写锁/TO</t>
+  </si>
+  <si>
     <t>未提交的/取消的数据</t>
   </si>
   <si>
+    <t>2PL/TO</t>
+  </si>
+  <si>
     <t>Non-repeatable reads</t>
   </si>
   <si>
     <t>读已经提交数据</t>
+  </si>
+  <si>
+    <t>一致性读</t>
   </si>
   <si>
     <r>
@@ -687,6 +712,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">RALL(A1&gt;10)
 </t>
     </r>
@@ -726,6 +758,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">RALL(A1&gt;10)
 </t>
     </r>
@@ -752,6 +791,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">W(A1=22)
 </t>
     </r>
@@ -788,6 +834,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF008000"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>RALL(A1&gt;10)</t>
     </r>
     <r>
@@ -925,9 +978,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1003,12 +1056,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1016,10 +1099,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1031,8 +1115,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1046,14 +1191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1065,90 +1202,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
@@ -1194,12 +1247,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1207,174 +1428,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,6 +1481,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1445,28 +1524,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1489,38 +1563,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1532,10 +1585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1544,133 +1597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1699,6 +1752,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1710,9 +1766,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -2034,7 +2087,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2392,7 +2445,7 @@
   <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2422,10 +2475,10 @@
       <c r="E1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2484,10 +2537,10 @@
         <v>59</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" ht="20.25" spans="1:7">
       <c r="A6" s="1"/>
@@ -2495,88 +2548,88 @@
         <v>60</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" ht="20.25" spans="1:7">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" ht="20.25" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" ht="20.25" spans="1:6">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" ht="20.25" spans="1:6">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" ht="20.25" spans="1:6">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" ht="20.25" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" ht="20.25" spans="1:6">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2607,10 +2660,10 @@
       <c r="B1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2694,8 +2747,8 @@
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
@@ -2703,11 +2756,12 @@
     <col min="1" max="1" width="31.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="4" max="4" width="65.15" style="8" customWidth="1"/>
     <col min="10" max="10" width="63.625" customWidth="1"/>
     <col min="11" max="11" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:3">
+    <row r="1" s="7" customFormat="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>84</v>
       </c>
@@ -2717,65 +2771,83 @@
       <c r="C1" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" ht="174" customHeight="1" spans="1:3">
+      <c r="D1" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" ht="174" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.DISPIMG("ID_A0FF7D28D25542A598D0297AF867B89D",1)</f>
         <v>=DISPIMG("ID_A0FF7D28D25542A598D0297AF867B89D",1)</v>
       </c>
-    </row>
-    <row r="3" ht="141" customHeight="1" spans="1:3">
-      <c r="A3" s="8" t="s">
-        <v>89</v>
+      <c r="D2" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="141" customHeight="1" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C3" t="str">
         <f>_xlfn.DISPIMG("ID_1E3EFF8E5BF149A28B0FF5470988FCA7",1)</f>
         <v>=DISPIMG("ID_1E3EFF8E5BF149A28B0FF5470988FCA7",1)</v>
       </c>
-    </row>
-    <row r="4" ht="112.45" spans="1:3">
+      <c r="D3" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" ht="112.45" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.DISPIMG("ID_24BC66371B1C42C38BCB568E1A30E24B",1)</f>
         <v>=DISPIMG("ID_24BC66371B1C42C38BCB568E1A30E24B",1)</v>
       </c>
-    </row>
-    <row r="5" ht="102" customHeight="1" spans="1:3">
+      <c r="D4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" ht="102" customHeight="1" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="9" t="str">
+        <v>97</v>
+      </c>
+      <c r="C5" s="10" t="str">
         <f>_xlfn.DISPIMG("ID_5A4C0E01B4E9449ABE7917BDDCDE5A51",1)</f>
         <v>=DISPIMG("ID_5A4C0E01B4E9449ABE7917BDDCDE5A51",1)</v>
       </c>
-    </row>
-    <row r="6" ht="125" customHeight="1" spans="1:3">
+      <c r="D5" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" ht="125" customHeight="1" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_304E6FCC18394D45B198344964BBC563",1)</f>
         <v>=DISPIMG("ID_304E6FCC18394D45B198344964BBC563",1)</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="10:11">
@@ -2862,22 +2934,22 @@
     </row>
     <row r="2" ht="37.5" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" ht="21.75" spans="2:2">
       <c r="B3" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" ht="37.5" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" ht="21" spans="4:5">
@@ -2890,19 +2962,19 @@
     </row>
     <row r="10" ht="37.5" spans="4:5">
       <c r="D10" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" ht="42" spans="4:5">
+    <row r="11" ht="42.75" spans="4:5">
       <c r="D11" s="1"/>
       <c r="E11" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" ht="37.5" spans="4:8">
       <c r="D12" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E12" s="1"/>
       <c r="G12" s="2" t="s">
@@ -2916,31 +2988,31 @@
       <c r="D13" s="1"/>
       <c r="E13" s="5"/>
       <c r="G13" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" ht="42.75" spans="7:8">
       <c r="G14" s="1"/>
       <c r="H14" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" ht="37.5" spans="7:8">
       <c r="G15" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" ht="37.5" spans="7:8">
       <c r="G16" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" ht="37.5" spans="7:8">
       <c r="G17" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -2958,19 +3030,19 @@
     </row>
     <row r="21" ht="39" customHeight="1" spans="10:11">
       <c r="J21" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" ht="42.75" spans="10:11">
       <c r="J22" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K22" s="3"/>
     </row>
     <row r="23" ht="42.75" spans="11:11">
       <c r="K23" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" ht="21" spans="13:14">
@@ -2983,34 +3055,34 @@
     </row>
     <row r="27" ht="21.75" spans="13:14">
       <c r="M27" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="N27" s="1"/>
     </row>
     <row r="28" ht="21.75" spans="13:13">
       <c r="M28" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" ht="21.75" spans="13:14">
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" ht="21.75" spans="14:14">
       <c r="N30" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" ht="42.75" spans="13:13">
       <c r="M31" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" ht="42.75" spans="14:14">
       <c r="N32" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/cc.xlsx
+++ b/cc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="并发控制方法" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="120">
   <si>
     <t>并发分类</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>排他锁释放在提交事务时候</t>
+  </si>
+  <si>
+    <t>写冲突应该尽量放在事务后面</t>
   </si>
   <si>
     <t>SS2PL</t>
@@ -977,8 +980,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1056,7 +1059,81 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,8 +1146,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,105 +1186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1247,43 +1250,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,13 +1418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,121 +1430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,32 +1484,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1545,6 +1522,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1563,17 +1549,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1585,10 +1588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1597,19 +1600,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1618,116 +1621,116 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1750,9 +1753,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2086,8 +2086,8 @@
   <sheetPr/>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2102,78 +2102,78 @@
     <col min="10" max="10" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="20.25" spans="1:10">
+    <row r="1" s="12" customFormat="1" ht="20.25" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="1" ht="20.25" spans="1:10">
-      <c r="A2" s="19" t="s">
+    <row r="2" s="13" customFormat="1" ht="20.25" spans="1:10">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-    </row>
-    <row r="3" s="13" customFormat="1" ht="20.25" spans="1:10">
-      <c r="A3" s="24"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" s="12" customFormat="1" ht="20.25" spans="1:10">
+      <c r="A3" s="23"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" ht="20.25" spans="1:10">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2182,10 +2182,10 @@
       <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="26" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="1"/>
@@ -2193,17 +2193,17 @@
       <c r="J4" s="1"/>
     </row>
     <row r="5" ht="20.25" spans="1:10">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="26" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="1"/>
@@ -2213,17 +2213,17 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" ht="20.25" spans="1:10">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="26" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="1"/>
@@ -2231,198 +2231,200 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" ht="20.25" spans="1:10">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="26" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="25" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" ht="20.25" spans="1:10">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="26" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="20.25" spans="1:6">
-      <c r="A9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" ht="20.25" spans="1:10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" ht="20.25" spans="1:10">
-      <c r="A11" s="26" t="s">
-        <v>27</v>
+      <c r="A11" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" ht="20.25" spans="1:10">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" s="15" customFormat="1" ht="20.25" spans="1:10">
-      <c r="A13" s="26"/>
+    <row r="13" s="14" customFormat="1" ht="20.25" spans="1:10">
+      <c r="A13" s="25"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="23"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="22"/>
       <c r="H13"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="20.25" spans="1:10">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A15" s="26" t="s">
-        <v>34</v>
+      <c r="A15" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>14</v>
       </c>
       <c r="H15"/>
       <c r="I15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="20.25" spans="1:9">
-      <c r="A16" s="26"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>13</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="20.25"/>
@@ -2461,48 +2463,48 @@
   <sheetData>
     <row r="1" s="7" customFormat="1" ht="20.25" spans="1:7">
       <c r="A1" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>47</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" ht="20.25" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" ht="20.25" spans="1:7">
@@ -2516,17 +2518,17 @@
     </row>
     <row r="4" ht="20.25" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -2534,7 +2536,7 @@
     <row r="5" ht="20.25" spans="1:7">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2545,12 +2547,12 @@
     <row r="6" ht="20.25" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2566,14 +2568,14 @@
     </row>
     <row r="8" ht="20.25" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2589,14 +2591,14 @@
     </row>
     <row r="10" ht="20.25" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -2611,14 +2613,14 @@
     </row>
     <row r="12" ht="20.25" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2655,24 +2657,24 @@
   <sheetData>
     <row r="1" ht="21" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>74</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" ht="37.5" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -2683,11 +2685,11 @@
     </row>
     <row r="3" ht="21.75" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="1"/>
       <c r="E3" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -2699,10 +2701,10 @@
     <row r="4" ht="21.75" spans="1:7">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -2713,11 +2715,11 @@
     </row>
     <row r="5" ht="21.75" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1"/>
       <c r="E5" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -2728,12 +2730,12 @@
     </row>
     <row r="6" ht="21.75" spans="2:2">
       <c r="B6" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="21.75" spans="2:2">
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2747,7 +2749,7 @@
   <sheetPr/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -2756,98 +2758,98 @@
     <col min="1" max="1" width="31.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="41.375" customWidth="1"/>
-    <col min="4" max="4" width="65.15" style="8" customWidth="1"/>
+    <col min="4" max="4" width="65.15" style="1" customWidth="1"/>
     <col min="10" max="10" width="63.625" customWidth="1"/>
     <col min="11" max="11" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" ht="174" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" t="str">
         <f>_xlfn.DISPIMG("ID_A0FF7D28D25542A598D0297AF867B89D",1)</f>
         <v>=DISPIMG("ID_A0FF7D28D25542A598D0297AF867B89D",1)</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>90</v>
+      <c r="D2" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="141" customHeight="1" spans="1:4">
-      <c r="A3" s="9" t="s">
-        <v>91</v>
+      <c r="A3" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" t="str">
         <f>_xlfn.DISPIMG("ID_1E3EFF8E5BF149A28B0FF5470988FCA7",1)</f>
         <v>=DISPIMG("ID_1E3EFF8E5BF149A28B0FF5470988FCA7",1)</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>93</v>
+      <c r="D3" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" ht="112.45" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="str">
         <f>_xlfn.DISPIMG("ID_24BC66371B1C42C38BCB568E1A30E24B",1)</f>
         <v>=DISPIMG("ID_24BC66371B1C42C38BCB568E1A30E24B",1)</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" ht="102" customHeight="1" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="10" t="str">
+        <v>98</v>
+      </c>
+      <c r="C5" s="9" t="str">
         <f>_xlfn.DISPIMG("ID_5A4C0E01B4E9449ABE7917BDDCDE5A51",1)</f>
         <v>=DISPIMG("ID_5A4C0E01B4E9449ABE7917BDDCDE5A51",1)</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>98</v>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" ht="125" customHeight="1" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>_xlfn.DISPIMG("ID_304E6FCC18394D45B198344964BBC563",1)</f>
         <v>=DISPIMG("ID_304E6FCC18394D45B198344964BBC563",1)</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>101</v>
+      <c r="D6" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="10:11">
@@ -2926,93 +2928,93 @@
   <sheetData>
     <row r="1" ht="21" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" ht="37.5" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" ht="21.75" spans="2:2">
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" ht="37.5" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" ht="21" spans="4:5">
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" ht="37.5" spans="4:5">
       <c r="D10" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" ht="42.75" spans="4:5">
       <c r="D11" s="1"/>
       <c r="E11" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" ht="37.5" spans="4:8">
       <c r="D12" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" ht="37.5" spans="4:8">
       <c r="D13" s="1"/>
       <c r="E13" s="5"/>
       <c r="G13" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" ht="42.75" spans="7:8">
       <c r="G14" s="1"/>
       <c r="H14" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" ht="37.5" spans="7:8">
       <c r="G15" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" ht="37.5" spans="7:8">
       <c r="G16" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" ht="37.5" spans="7:8">
       <c r="G17" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H17" s="3"/>
     </row>
@@ -3022,67 +3024,67 @@
     </row>
     <row r="20" ht="21" spans="10:11">
       <c r="J20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" ht="39" customHeight="1" spans="10:11">
       <c r="J21" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" ht="42.75" spans="10:11">
       <c r="J22" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K22" s="3"/>
     </row>
     <row r="23" ht="42.75" spans="11:11">
       <c r="K23" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" ht="21" spans="13:14">
       <c r="M26" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" ht="21.75" spans="13:14">
       <c r="M27" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N27" s="1"/>
     </row>
     <row r="28" ht="21.75" spans="13:13">
       <c r="M28" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" ht="21.75" spans="13:14">
       <c r="M29" s="3"/>
       <c r="N29" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" ht="21.75" spans="14:14">
       <c r="N30" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" ht="42.75" spans="13:13">
       <c r="M31" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" ht="42.75" spans="14:14">
       <c r="N32" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
